--- a/runtime/export/jkxm_pgwbj.xlsx
+++ b/runtime/export/jkxm_pgwbj.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>纳税人识别号</t>
   </si>
@@ -26,6 +26,9 @@
     <t>评估案件编号</t>
   </si>
   <si>
+    <t>评估案件类型</t>
+  </si>
+  <si>
     <t>评估人员</t>
   </si>
 </sst>
@@ -34,10 +37,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -62,6 +65,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -70,31 +120,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,17 +166,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,52 +182,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,15 +189,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +217,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -232,19 +259,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,139 +337,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +433,80 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -453,80 +530,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +550,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,7 +1015,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1020,16 +1023,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.5555555555556" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.7777777777778" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="3" max="4" width="28.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.1" customHeight="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="17.1" customHeight="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1042,6 +1045,9 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>

--- a/runtime/export/jkxm_pgwbj.xlsx
+++ b/runtime/export/jkxm_pgwbj.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection lockStructure="1"/>
+  <workbookProtection workbookPassword="EC63" lockStructure="1"/>
   <bookViews>
     <workbookView windowWidth="21288" windowHeight="10535"/>
   </bookViews>
@@ -37,10 +37,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -58,18 +58,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,6 +82,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -88,47 +136,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,61 +180,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,49 +211,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,6 +367,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -272,126 +392,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -452,7 +476,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +513,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -497,39 +530,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -538,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,16 +550,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,115 +568,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,7 +1050,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection password="EC63" sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/runtime/export/jkxm_pgwbj.xlsx
+++ b/runtime/export/jkxm_pgwbj.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection workbookPassword="EC63" lockStructure="1"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView windowWidth="21288" windowHeight="10535"/>
   </bookViews>
@@ -37,10 +37,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -58,9 +58,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,97 +158,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -172,16 +188,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,14 +197,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,13 +211,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,54 +337,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -313,30 +373,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -356,42 +392,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,30 +433,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -476,7 +452,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,15 +489,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -530,6 +497,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -538,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,16 +550,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,115 +568,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,7 +1050,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="EC63" sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
